--- a/ParkByeongHyeon/TopicClustering/Metaverse/packages_DBSCAN_clusters(Metaverse).xlsx
+++ b/ParkByeongHyeon/TopicClustering/Metaverse/packages_DBSCAN_clusters(Metaverse).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>num</t>
   </si>
@@ -28,64 +28,22 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['Snowapril/VRoom', 'Snowapril/VRoomEditor']</t>
-  </si>
-  <si>
-    <t>['micro/micro', 'yomorun/yomo', 'contextart/nfte', 'omigroup/OMI', 'micro-community/micro', 'srcnalt/avatar-view', 'sorengranfeldt/mre', 'woowa-techcamp-2021/store-6', 'jb55/protoverse', 'mvs-org/mvsd-mysql-sync', 'amirgamil/flora', 'SnowCrashDAO/metavoxel', 'gmaliandi/metavrse-toolbar', 'datatogether/dataset_registries', 'r37616/FIMMV', 'gdebojyoti/stormfly', 'ptsource/VRGrid', 'canguruhh/myetpbot', 'seanpm2001/SNU_2D_Metaverse_Navigator', 'yomorun/vhq-frontend-metaverse', 'mvs-org/mvs-coin-bridge', 'ostwilkens/open-virtual-identity', 'MitchellTesla/verbose-octa-BOC', 'ArcadeCity/omstack', '3scava1i3r-Projects/Spring', 'OS-Development/METAbolt-Revival', 'playzero/subzero', 'webvrse/webvrse', 'reneDescartess/bored-elon-unicorn-club', 'woctezuma/egs-datamining', 'reneDescartess/meme-dash', 'soundcloudofweb3/bored-elon', 'SangwookYoo/SKU_Metaverse-unity', 'Digiworlds/frax-bucks', 'GGMachines/Whitepaper', 'Dawoox/Project-Metaverse', 'sandao-cc/rivermen-website']</t>
-  </si>
-  <si>
-    <t>['exokitxr/exokit-web', 'exokitxr/exokit-browser']</t>
-  </si>
-  <si>
-    <t>['hypercube-lab/hypercube', 'mvs-org/metaverse', 'mvs-org/lightwallet', 'mvs-org/metaverse-vm', 'canguruhh/metaversejs', 'mvs-org/mvs-live', 'mvs-org/new-frontiers', 'wakandalabs/worldofwakanda', 'ConscienceLand/coinwrapper-etp', 'blocktrack/worker', 'madjin/m3-panel', 'blocktrack/merkleizer']</t>
-  </si>
-  <si>
-    <t>['monaverse/prettier-config-monaverse', 'monaverse/eslint-config-monaverse']</t>
-  </si>
-  <si>
-    <t>['rmetaverse/metaverse', 'rmetaverse/pubBias']</t>
-  </si>
-  <si>
-    <t>['vircadia/vircadia', 'madjin/vrm-samples', 'metaversityfoundation/metaversityfoundation.github.io']</t>
-  </si>
-  <si>
-    <t>['jbaicoianu/janusweb', 'OpenCollar/opencollar', 'owlboy/greatpug-public', 'Vytek/MayaVerse', 'Vytek/MayaVerse03', 'CreoverseTeam/CreoversePublic', 'PapaSmurf/metaverse']</t>
-  </si>
-  <si>
-    <t>['yomorun/yomo-vhq-backend', 'yomorun/yomo-vhq-nextjs']</t>
-  </si>
-  <si>
-    <t>['TweaksLab/Metaverse']</t>
-  </si>
-  <si>
-    <t>[('web', 2), ('unity', 2), ('conference', 2), ('vr', 2), ('metaverse', 2), ('webinar', 2), ('xr', 2), ('oculus-quest', 2), ('desktop', 1), ('virtualreality', 1), ('virtual-reality', 1)]</t>
-  </si>
-  <si>
-    <t>[('metaverse', 37), ('ethereum', 4), ('cloud', 3), ('microservice', 3), ('vr', 3), ('crypto', 2), ('fim', 2), ('sql', 2), ('docker', 2), ('defi', 2), ('aframe', 2), ('react', 2), ('nfts', 2), ('ethereum-dapp', 2), ('api', 1)]</t>
-  </si>
-  <si>
-    <t>[('web', 4), ('a-frame', 2), ('augmented-reality', 2), ('vr', 2), ('webvr', 2), ('ar', 2), ('aframe', 2), ('virtual-reality', 2), ('babylonjs', 2), ('metaverse', 2), ('javascript', 1), ('html', 1), ('threejs', 1), ('iframe', 1), ('3d', 1)]</t>
-  </si>
-  <si>
-    <t>[('blockchain', 12), ('metaverse', 12), ('digital-assets', 2), ('digital-identity', 2), ('web', 2), ('bitcoin', 2), ('blocktrack', 2), ('c', 1), ('go', 1), ('rust', 1), ('golang', 1), ('crypto', 1), ('llvm', 1), ('smart-contracts', 1), ('hypercube', 1)]</t>
-  </si>
-  <si>
-    <t>[('blockchain', 2), ('polygon', 2), ('metaverse', 2), ('nft', 2), ('mona', 2), ('monaverse', 2), ('ethereum', 1), ('prettier', 1), ('prettier-config', 1), ('eslint', 1), ('eslint-config', 1)]</t>
-  </si>
-  <si>
-    <t>[('r', 2), ('meta-analysis', 2), ('metaverse', 2), ('systematic-reviews', 1), ('evidence-synthesis', 1), ('publication-bias', 1)]</t>
-  </si>
-  <si>
-    <t>[('vr', 3), ('ar', 3), ('metaverse', 3), ('xr', 3), ('web', 3), ('linux', 1), ('open-source', 1), ('virtual-reality', 1), ('reality', 1), ('immersion', 1), ('3d', 1), ('game', 1), ('avatars', 1), ('vrm', 1), ('gltf', 1)]</t>
-  </si>
-  <si>
-    <t>[('virtual-reality', 7), ('metaverse', 7), ('socialvr', 3), ('hazel', 2), ('mayaverse', 2), ('game', 1), ('vr', 1), ('vive', 1), ('oculus', 1), ('oculus-rift', 1), ('virtual', 1), ('mit-license', 1), ('daydream', 1), ('3d', 1), ('janusvr', 1)]</t>
-  </si>
-  <si>
-    <t>[('metaverse', 2), ('geodistributedsystems', 2), ('yomo', 2), ('yomo-use-case', 2), ('virtualhq', 2), ('metaverse-cloud', 2), ('macrometa', 1)]</t>
-  </si>
-  <si>
-    <t>[('metaverse', 1), ('socialnetwork', 1), ('nft', 1), ('opensea', 1), ('nfts', 1), ('metaverse-cloud', 1), ('metaverse-infrastructure', 1)]</t>
+    <t>['micro/micro', 'hypercube-lab/hypercube', 'yomorun/yomo', 'vircadia/vircadia', 'contextart/nfte', 'jbaicoianu/janusweb', 'exokitxr/exokit-web', 'OpenCollar/opencollar', 'exokitxr/exokit-browser', 'owlboy/greatpug-public', 'micro-community/micro', 'Vytek/MayaVerse', 'madjin/vrm-samples', 'Vytek/MayaVerse03', 'Snowapril/VRoom', 'CreoverseTeam/CreoversePublic', 'yomorun/yomo-vhq-backend', 'SnowCrashDAO/metavoxel', 'gmaliandi/metavrse-toolbar', 'gdebojyoti/stormfly', 'Snowapril/VRoomEditor', 'ptsource/VRGrid', 'monaverse/prettier-config-monaverse', 'yomorun/yomo-vhq-nextjs', 'TweaksLab/Metaverse', 'yomorun/vhq-frontend-metaverse', 'metaversityfoundation/metaversityfoundation.github.io', 'mvs-org/mvs-coin-bridge', 'monaverse/eslint-config-monaverse', 'webvrse/webvrse', 'madjin/m3-panel', 'reneDescartess/bored-elon-unicorn-club', 'PapaSmurf/metaverse', 'Digiworlds/frax-bucks', 'GGMachines/Whitepaper']</t>
+  </si>
+  <si>
+    <t>['mvs-org/metaverse', 'mvs-org/lightwallet', 'mvs-org/metaverse-vm', 'canguruhh/metaversejs', 'mvs-org/mvs-live', 'mvs-org/new-frontiers', 'wakandalabs/worldofwakanda', 'ConscienceLand/coinwrapper-etp', 'blocktrack/worker', 'blocktrack/merkleizer']</t>
+  </si>
+  <si>
+    <t>['omigroup/OMI', 'rmetaverse/metaverse', 'srcnalt/avatar-view', 'sorengranfeldt/mre', 'woowa-techcamp-2021/store-6', 'jb55/protoverse', 'mvs-org/mvsd-mysql-sync', 'amirgamil/flora', 'datatogether/dataset_registries', 'r37616/FIMMV', 'canguruhh/myetpbot', 'seanpm2001/SNU_2D_Metaverse_Navigator', 'rmetaverse/pubBias', 'ostwilkens/open-virtual-identity', 'MitchellTesla/verbose-octa-BOC', 'ArcadeCity/omstack', '3scava1i3r-Projects/Spring', 'OS-Development/METAbolt-Revival', 'playzero/subzero', 'woctezuma/egs-datamining', 'reneDescartess/meme-dash', 'soundcloudofweb3/bored-elon', 'SangwookYoo/SKU_Metaverse-unity', 'Dawoox/Project-Metaverse', 'sandao-cc/rivermen-website']</t>
+  </si>
+  <si>
+    <t>[('metaverse', 35), ('vr', 12), ('virtual-reality', 11), ('web', 11), ('ethereum', 6), ('blockchain', 5), ('ar', 5), ('xr', 5), ('3d', 4), ('augmented-reality', 4), ('aframe', 4), ('metaverse-cloud', 4), ('nft', 4), ('cloud', 3), ('geodistributedsystems', 3)]</t>
+  </si>
+  <si>
+    <t>[('blockchain', 10), ('metaverse', 10), ('digital-assets', 2), ('digital-identity', 2), ('bitcoin', 2), ('blocktrack', 2), ('avatar', 1), ('mvs', 1), ('web', 1), ('mobile-app', 1), ('blockchain-website', 1), ('rust-lang', 1), ('wakanda', 1), ('testnet', 1)]</t>
+  </si>
+  <si>
+    <t>[('metaverse', 25), ('r', 2), ('meta-analysis', 2), ('fim', 2), ('docker', 2), ('ethereum-dapp', 2), ('systematic-reviews', 1), ('evidence-synthesis', 1), ('avatar', 1), ('gravatar', 1), ('node-package', 1), ('ready-player-me', 1), ('framework', 1), ('mim2016', 1), ('fim2010', 1)]</t>
   </si>
 </sst>
 </file>
@@ -443,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,142 +423,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
